--- a/npc.xlsx
+++ b/npc.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Project\DB Basic\DB project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Project\DB Basic\Darnassus_Usher\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="1485"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="npc" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,19 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
-  <si>
-    <t>울부짖는 참나무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세나리온 자치령</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신전 정원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="131">
   <si>
     <t>그웬 암스테드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>달의 신전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>루쿠아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,30 +226,334 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상인의 정원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지팡이 상점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아나디야</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상인의 정원</t>
+    <t>키리단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멜레아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케인루스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비나시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이알리샤 듀위스퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>란드리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투리안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천 방어구 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지팡이 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 방어구 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사슬 방어구 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천 방어구 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양손무기 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투척 무기 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골로서스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>톨론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카자레즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실바라스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도끼 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로란디르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미시단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메렐릿사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도검류 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키에란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둔기 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘란드리어스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일용품 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샬루몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘장 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리셰아나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길드 사무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문 재봉사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재봉용품 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔로니스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문 가죽 세공인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘라드리엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문 무두장이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세노리온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 세공용품 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀리에네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여관 주인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈라단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문 마법 부여사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 부여 용품 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문 주문 각인사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애사 실버듀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문 보석 세공인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타리엔 실버듀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보석 세공용품 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단넬로르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문 응급 치료사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문 광부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현장감독 퍼닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리사 할딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채광용품 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타나 렌트너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문 기계공학자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴고 렌트너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술용품 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문 요리사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알레고른</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요리 재료 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이네실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문 연금술사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울시르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연금술 용품 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시우르나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급 도적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니샤르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에리온 셰이드위스퍼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -589,364 +877,1039 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72:C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.125" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="41.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1</v>
+      <c r="D17">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18">
+        <v>31</v>
+      </c>
+      <c r="D18">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
+        <v>128</v>
+      </c>
+      <c r="C19">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
+        <v>128</v>
+      </c>
+      <c r="C20">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" t="s">
-        <v>55</v>
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>57</v>
       </c>
-      <c r="B31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" t="s">
-        <v>58</v>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47">
+        <v>13</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48">
+        <v>13</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49">
+        <v>13</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50">
+        <v>14</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53">
+        <v>16</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54">
+        <v>17</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56">
+        <v>18</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57">
+        <v>18</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58">
+        <v>18</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59">
+        <v>19</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62">
+        <v>21</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63">
+        <v>22</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64">
+        <v>22</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65">
+        <v>23</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66">
+        <v>24</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67">
+        <v>24</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68">
+        <v>25</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69">
+        <v>25</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70">
+        <v>26</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71">
+        <v>26</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72">
+        <v>27</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73">
+        <v>27</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
